--- a/AngularJS-SPA-Issue-Tracking-System/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/AngularJS-SPA-Issue-Tracking-System/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
-    <t>Days Commit in GitHub</t>
-  </si>
-  <si>
     <t>Numbers of Commits in GitHub</t>
   </si>
   <si>
@@ -151,10 +148,13 @@
     <t>adelayda</t>
   </si>
   <si>
-    <t>Adelina Yanakieva</t>
-  </si>
-  <si>
     <t>https://github.com/adelayda/AngularJS-SPA-Issue-Tracking-System</t>
+  </si>
+  <si>
+    <t>Adelina Borislavova Yanakieva</t>
+  </si>
+  <si>
+    <t>Days Commit in GitHub  -  14 days</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="G20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -665,21 +665,21 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -687,17 +687,17 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>35</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="6" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B6" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -715,37 +715,39 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
       <c r="D8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -753,7 +755,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
         <v>20</v>
@@ -765,10 +767,10 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4">
         <v>30</v>
@@ -777,7 +779,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
@@ -789,7 +791,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -801,9 +803,11 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
@@ -811,9 +815,11 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
       <c r="D16" s="4">
         <v>10</v>
       </c>
@@ -821,9 +827,11 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
@@ -831,9 +839,11 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
       <c r="D18" s="4">
         <v>10</v>
       </c>
@@ -841,9 +851,11 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
       <c r="D19" s="4">
         <v>15</v>
       </c>
@@ -851,9 +863,11 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
       <c r="D20" s="4">
         <v>10</v>
       </c>
@@ -861,9 +875,11 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
       <c r="D21" s="4">
         <v>10</v>
       </c>
@@ -871,9 +887,11 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="C22" s="4"/>
       <c r="D22" s="4">
         <v>5</v>
       </c>
@@ -881,9 +899,11 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
       <c r="D23" s="4">
         <v>10</v>
       </c>
@@ -891,7 +911,7 @@
     </row>
     <row r="24" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B24" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -899,9 +919,11 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="6">
+        <v>20</v>
+      </c>
       <c r="D25" s="6">
         <v>20</v>
       </c>
@@ -909,9 +931,11 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
       <c r="D26" s="6">
         <v>20</v>
       </c>
@@ -919,7 +943,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -927,9 +951,11 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
       <c r="D28" s="6">
         <v>10</v>
       </c>
@@ -937,9 +963,11 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
       <c r="D29" s="6">
         <v>10</v>
       </c>
@@ -947,9 +975,11 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C30" s="6">
+        <v>15</v>
+      </c>
       <c r="D30" s="6">
         <v>15</v>
       </c>
@@ -957,9 +987,11 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
       <c r="D31" s="6">
         <v>5</v>
       </c>
@@ -967,11 +999,11 @@
     </row>
     <row r="32" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>

--- a/AngularJS-SPA-Issue-Tracking-System/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/AngularJS-SPA-Issue-Tracking-System/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
-    <t>Numbers of Commits in GitHub</t>
-  </si>
-  <si>
     <t>Web Design</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Days Commit in GitHub  -  14 days</t>
+  </si>
+  <si>
+    <t>Numbers of Commits in GitHub - 129</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="G20:H21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -665,21 +665,21 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B3" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -687,27 +687,27 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B6" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -715,39 +715,39 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5">
         <v>100</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="4">
         <v>20</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4">
         <v>28</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4">
         <v>5</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4">
         <v>15</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="24" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B24" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -919,7 +919,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6">
         <v>20</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6">
         <v>5</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -951,7 +951,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6">
         <v>10</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6">
         <v>10</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6">
         <v>15</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6">
         <v>5</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="32" spans="2:5" ht="18.3" x14ac:dyDescent="0.7">
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
